--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cytl1-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cytl1-Ccr2.xlsx
@@ -534,16 +534,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.757828</v>
+        <v>0.5364909999999999</v>
       </c>
       <c r="H2">
-        <v>8.273484</v>
+        <v>1.609473</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1067053333333333</v>
+        <v>0.177232</v>
       </c>
       <c r="N2">
-        <v>0.320116</v>
+        <v>0.5316959999999999</v>
       </c>
       <c r="O2">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156216</v>
       </c>
       <c r="P2">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156217</v>
       </c>
       <c r="Q2">
-        <v>0.294274956016</v>
+        <v>0.09508337291199997</v>
       </c>
       <c r="R2">
-        <v>2.648474604144</v>
+        <v>0.8557503562079999</v>
       </c>
       <c r="S2">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156216</v>
       </c>
       <c r="T2">
-        <v>0.0004703131782773351</v>
+        <v>0.0005104719838156217</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.757828</v>
+        <v>0.5364909999999999</v>
       </c>
       <c r="H3">
-        <v>8.273484</v>
+        <v>1.609473</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.243407</v>
       </c>
       <c r="O3">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="P3">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="Q3">
-        <v>0.223758213332</v>
+        <v>0.04352855494566667</v>
       </c>
       <c r="R3">
-        <v>2.013823919988</v>
+        <v>0.391756994511</v>
       </c>
       <c r="S3">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
       <c r="T3">
-        <v>0.0003576126147551241</v>
+        <v>0.0002336907822601807</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.757828</v>
+        <v>0.5364909999999999</v>
       </c>
       <c r="H4">
-        <v>8.273484</v>
+        <v>1.609473</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.87945166666666</v>
+        <v>274.5137023333334</v>
       </c>
       <c r="N4">
-        <v>173.638355</v>
+        <v>823.541107</v>
       </c>
       <c r="O4">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="P4">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="Q4">
-        <v>159.62157243098</v>
+        <v>147.2741306785123</v>
       </c>
       <c r="R4">
-        <v>1436.59415187882</v>
+        <v>1325.467176106611</v>
       </c>
       <c r="S4">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
       <c r="T4">
-        <v>0.2551087937213329</v>
+        <v>0.7906673411949746</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.757828</v>
+        <v>0.5364909999999999</v>
       </c>
       <c r="H5">
-        <v>8.273484</v>
+        <v>1.609473</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.065871</v>
+        <v>0.042388</v>
       </c>
       <c r="N5">
-        <v>0.197613</v>
+        <v>0.127164</v>
       </c>
       <c r="O5">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="P5">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="Q5">
-        <v>0.181660888188</v>
+        <v>0.022740780508</v>
       </c>
       <c r="R5">
-        <v>1.634947993692</v>
+        <v>0.204667024572</v>
       </c>
       <c r="S5">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
       <c r="T5">
-        <v>0.0002903322486189975</v>
+        <v>0.0001220879211991998</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.757828</v>
+        <v>0.5364909999999999</v>
       </c>
       <c r="H6">
-        <v>8.273484</v>
+        <v>1.609473</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>168.748281</v>
+        <v>72.37795533333333</v>
       </c>
       <c r="N6">
-        <v>506.244843</v>
+        <v>217.133866</v>
       </c>
       <c r="O6">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="P6">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="Q6">
-        <v>465.3787342936679</v>
+        <v>38.83012163473533</v>
       </c>
       <c r="R6">
-        <v>4188.408608643012</v>
+        <v>349.471094712618</v>
       </c>
       <c r="S6">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
       <c r="T6">
-        <v>0.7437729482370157</v>
+        <v>0.2084664081177503</v>
       </c>
     </row>
   </sheetData>
